--- a/Bike Sales Excel Dashboard.xlsx
+++ b/Bike Sales Excel Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8731D87-E427-4E19-B503-44AD63F7E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DE917-E637-4FAD-8743-D12BAA03BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,10 +796,10 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -837,7 +837,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1461,7 +1461,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -2375,7 +2375,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -3801,7 +3801,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable5</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable5</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -4401,7 +4401,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -5129,7 +5129,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -5494,7 +5494,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable4</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable4</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
@@ -6132,7 +6132,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable5</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable5</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -6915,7 +6915,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -7782,7 +7782,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike Sales Excel Dashboard.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
@@ -15884,7 +15884,7 @@
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 5868"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -15942,7 +15942,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>74082</xdr:colOff>
+      <xdr:colOff>73269</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
@@ -15960,10 +15960,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="84664" y="84667"/>
-          <a:ext cx="8475327" cy="762000"/>
+          <a:ext cx="8502490" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx2">
@@ -16055,7 +16057,9 @@
           <a:ext cx="1876616" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg2"/>
@@ -16093,6 +16097,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:ln>
                 <a:noFill/>
@@ -16101,7 +16116,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total Purchase</a:t>
+            <a:t> Purchase</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -16191,11 +16206,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2119313" y="984250"/>
-          <a:ext cx="3071812" cy="2032000"/>
+          <a:off x="2104159" y="984250"/>
+          <a:ext cx="3046557" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg2"/>
@@ -16262,9 +16279,17 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Region</a:t>
+            <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16300,11 +16325,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5355167" y="984250"/>
-          <a:ext cx="3323166" cy="2032000"/>
+          <a:off x="5293591" y="984250"/>
+          <a:ext cx="3276984" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg2"/>
@@ -16355,9 +16382,17 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Age Bracket</a:t>
+            <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Age Bracket</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16470,11 +16505,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="84667" y="3164417"/>
-          <a:ext cx="4384145" cy="3100916"/>
+          <a:ext cx="4348787" cy="3100916"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 9841"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -16518,7 +16553,15 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Purchase Rate by Commute Distance</a:t>
+            <a:t>Purchase Rate by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Commute Distance</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16551,12 +16594,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4677833" y="3164417"/>
-          <a:ext cx="3989917" cy="3100916"/>
+          <a:off x="4623955" y="3164417"/>
+          <a:ext cx="3936037" cy="3100916"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 9841"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -16608,7 +16651,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Income by Gender and Purchase Decision</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Income</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> by Gender and Purchase Decision</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -16699,96 +16758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19184</xdr:rowOff>
+      <xdr:colOff>519813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463202</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12634479-980E-1EA8-D12E-6AE3BA624908}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7020899" y="209684"/>
-          <a:ext cx="1322076" cy="224894"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>     Purchased</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>359352</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>126340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>469155</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160734</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21481</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16803,8 +16781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7026852" y="507340"/>
-          <a:ext cx="1322076" cy="224894"/>
+          <a:off x="7209294" y="608135"/>
+          <a:ext cx="1326072" cy="190042"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16861,15 +16839,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>395071</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>555532</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584488</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16884,80 +16862,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7062571" y="547688"/>
-          <a:ext cx="189417" cy="148828"/>
+          <a:off x="7245013" y="637443"/>
+          <a:ext cx="187951" cy="125016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent3"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>395071</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584488</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB3C841-DE7D-FCF1-758B-0F0DBE59B8C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7062571" y="244078"/>
-          <a:ext cx="189417" cy="148828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -17305,13 +17217,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>197235</xdr:colOff>
+      <xdr:colOff>197234</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>164523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>502229</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
@@ -17329,12 +17241,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8683144" y="5879523"/>
-          <a:ext cx="911130" cy="381000"/>
+          <a:off x="8711119" y="5879523"/>
+          <a:ext cx="982399" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 22302"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -17386,14 +17298,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>578236</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21390</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>164523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>432956</xdr:colOff>
+      <xdr:colOff>484245</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
@@ -17410,12 +17322,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9670281" y="5879523"/>
-          <a:ext cx="460857" cy="381000"/>
+          <a:off x="9751544" y="5879523"/>
+          <a:ext cx="462855" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 24575"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -17465,13 +17377,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>500302</xdr:colOff>
+      <xdr:colOff>551590</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>164522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>355023</xdr:colOff>
+      <xdr:colOff>406311</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>164522</xdr:rowOff>
     </xdr:to>
@@ -17488,12 +17400,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10198484" y="5879522"/>
-          <a:ext cx="460857" cy="381000"/>
+          <a:off x="10281744" y="5879522"/>
+          <a:ext cx="462855" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 24575"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -17543,15 +17455,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>458931</xdr:colOff>
+      <xdr:colOff>506224</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>77931</xdr:rowOff>
+      <xdr:rowOff>82594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>415638</xdr:colOff>
+      <xdr:colOff>462931</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>69274</xdr:rowOff>
+      <xdr:rowOff>73937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17581,8 +17493,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10157113" y="5792931"/>
-          <a:ext cx="562843" cy="562843"/>
+          <a:off x="10236378" y="5797594"/>
+          <a:ext cx="564841" cy="562843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17594,13 +17506,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:colOff>85926</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>176654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>398319</xdr:colOff>
+      <xdr:colOff>449608</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>159336</xdr:rowOff>
     </xdr:to>
@@ -17632,7 +17544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9732819" y="5891654"/>
+          <a:off x="9816080" y="5891654"/>
           <a:ext cx="363682" cy="363682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17640,6 +17552,242 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2882DCFF-ECBB-4E94-A360-9C018571860F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="84667"/>
+          <a:ext cx="1641231" cy="259698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Laurensius's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Portofolio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519813</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21481</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E061D0-0366-5DE7-25FC-56401D090667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7209294" y="402981"/>
+          <a:ext cx="1326072" cy="190042"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     Purchased</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>555532</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9BB834-E182-34CA-6A8F-FE9752299510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7245013" y="424962"/>
+          <a:ext cx="187951" cy="125016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18275,199 +18423,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DFAD6A8-A975-4051-AFC8-EBDB5CF72799}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G2:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ID" fld="2" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0"/>
-          <reference field="1" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="22">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Count of ID"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="14"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF3DE8D-0059-4319-B5CA-F3FBADDA0DCD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -18518,7 +18473,7 @@
     <dataField name="Average of Income" fld="2" subtotal="average" baseField="0" baseItem="1547434664"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18691,7 +18646,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6D7C3C-539C-4FAD-B237-50AE8B6E08D6}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="AD1:AG6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -18746,7 +18701,7 @@
     <dataField name="Count of ID" fld="1" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -18876,7 +18831,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5EA859A-A87A-4C6D-9B3D-EEC3EE718A4E}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="V1:W4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -19054,7 +19009,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99FFD09A-9BF0-4455-B297-E83DB91AC32F}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="N2:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -19117,7 +19072,7 @@
     <dataField name="Count of ID" fld="2" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -19467,6 +19422,199 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="14"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DFAD6A8-A975-4051-AFC8-EBDB5CF72799}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G2:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ID" fld="2" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="22">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Count of ID"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="14"/>
@@ -62451,8 +62599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78C13-165A-4426-B1F3-9DFCD7108C08}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
